--- a/data/trans_camb/P16B07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,82</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,41</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,97%</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,7</t>
         </is>
       </c>
     </row>
@@ -772,17 +772,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,15; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,06; 0,0</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,41%</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,15; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,06; 0,0</t>
         </is>
       </c>
     </row>
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,18</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 28,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,82</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 49,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 36,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 39,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 31,33</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>-1,94</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,65; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,89; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,65; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,89; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1235,22 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,14</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,1</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 30,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,91</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,45</t>
         </is>
       </c>
     </row>
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,56</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,38; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,67; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,34; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,18; 0,0</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,44%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,56%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,38; 0,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,67; 0,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,34; 0,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,18; 0,0</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,29</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,59</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,65</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,47</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,59</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 12,59</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 12,12</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,58%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 24,35</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,61</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,72</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,08</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 14,4</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 13,79</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,89</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 5,1</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 5,19</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 4,54</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 5,0</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,5</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,98</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 5,42</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 5,53</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 4,79</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 5,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,72; 10,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,31; 7,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,99; 11,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,36; 8,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 10,09</t>
+          <t>-19,57; 10,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,25</t>
+          <t>0,0; 25,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 7,68</t>
+          <t>-11,86; 7,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,41</t>
+          <t>0,0; 18,96</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 11,26</t>
+          <t>-21,35; 11,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,78</t>
+          <t>0,0; 35,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 8,36</t>
+          <t>-12,13; 8,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,7</t>
+          <t>0,0; 23,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 0,0</t>
+          <t>-15,36; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 0,0</t>
+          <t>-12,2; 0,0</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 0,0</t>
+          <t>-15,36; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,14 +896,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 0,0</t>
+          <t>-12,2; 0,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,24</t>
+          <t>0,0; 29,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,57</t>
+          <t>0,0; 26,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,21</t>
+          <t>0,0; 21,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,82</t>
+          <t>0,0; 28,13</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,79</t>
+          <t>0,0; 42,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,19</t>
+          <t>0,0; 36,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,35</t>
+          <t>0,0; 27,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,33</t>
+          <t>0,0; 39,17</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,51</t>
+          <t>0,0; 23,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,82</t>
+          <t>0,0; 19,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,62</t>
+          <t>0,0; 18,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,1</t>
+          <t>0,0; 16,01</t>
         </is>
       </c>
     </row>
@@ -1349,29 +1349,29 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,77</t>
+          <t>0,0; 30,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,91</t>
+          <t>0,0; 23,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,14</t>
+          <t>0,0; 23,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,45</t>
+          <t>0,0; 19,06</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 0,0</t>
+          <t>-21,98; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 0,0</t>
+          <t>-17,13; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 0,0</t>
+          <t>-15,27; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 0,0</t>
+          <t>-16,65; 0,0</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 0,0</t>
+          <t>-21,98; 0,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 0,0</t>
+          <t>-17,13; 0,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 0,0</t>
+          <t>-15,27; 0,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 0,0</t>
+          <t>-16,65; 0,0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,59</t>
+          <t>0,0; 20,28</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,65</t>
+          <t>0,0; 20,93</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,47</t>
+          <t>0,0; 16,94</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,59</t>
+          <t>0,0; 16,28</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,25; 12,59</t>
+          <t>1,45; 12,52</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,25; 12,12</t>
+          <t>1,44; 12,54</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,35</t>
+          <t>0,0; 25,43</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,61</t>
+          <t>0,0; 26,46</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,72</t>
+          <t>0,0; 20,39</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,08</t>
+          <t>0,0; 19,44</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>1,27; 14,4</t>
+          <t>1,47; 14,31</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,27; 13,79</t>
+          <t>1,46; 14,33</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,31</t>
+          <t>0,0; 9,47</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,89</t>
+          <t>0,0; 8,59</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,1</t>
+          <t>-0,3; 4,74</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,19</t>
+          <t>-0,14; 4,77</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,54</t>
+          <t>0,19; 4,55</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,0</t>
+          <t>0,42; 4,65</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,5</t>
+          <t>0,0; 10,46</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,98</t>
+          <t>0,0; 9,39</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,42</t>
+          <t>-0,3; 5,02</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,53</t>
+          <t>-0,14; 5,01</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,79</t>
+          <t>0,21; 4,8</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,31</t>
+          <t>0,44; 4,92</t>
         </is>
       </c>
     </row>
